--- a/biology/Médecine/Éric_Hazan/Éric_Hazan.xlsx
+++ b/biology/Médecine/Éric_Hazan/Éric_Hazan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ric_Hazan</t>
+          <t>Éric_Hazan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éric Hazan, né en 1936 à Paris, est un écrivain et éditeur français, fondateur des éditions La Fabrique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ric_Hazan</t>
+          <t>Éric_Hazan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,18 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et militantisme
-Éric Hazan naît à Paris[1] d'une mère d'origine juive roumaine née en Palestine[2] et d'un père juif originaire d'Égypte[3], Fernand Hazan, éditeur, lui-même frère d'Émile Hazan, également éditeur.
-Très tôt engagé politiquement, il milite aux côtés du FLN durant la guerre d'Algérie[4].
-En 1975, devenu chirurgien cardiovasculaire, et membre fondateur de l’Association médicale franco-palestinienne, il se rend au Liban alors en pleine guerre, pour servir de médecin « à cette “armée” que l’on appelait à l’époque les “Palestino-progressistes” »[4]. Il est membre du comité de parrainage du tribunal Russell sur la Palestine dont les travaux ont commencé le 4 mars 2009[5].
-En 2019 il co-signe dans Mediapart un appel au boycott[6] de l'Eurovision à Tel Aviv.
-Éditeur
-Pendant quatorze ans, il dirige les éditions Hazan, prenant ainsi la succession de son père Fernand Hazan qui avait créé cette maison consacrée aux livres d'art. Il quitte la direction après le rachat par le groupe Hachette quatre ans après la mort du fondateur.
-En 1998, il fonde les éditions La Fabrique, une maison d'édition où sont publiés des essais historiques ou philosophiques, qui se veulent « ancrés politiquement à gauche de la gauche, mais sans céder à aucun esprit de chapelle, sans être inféodés à aucun groupe ni parti[7] » et se tourne vers l'écriture[4].
-À La Fabrique, « il n'édite que des amis » d'après Libération. C'est ainsi[non neutre] qu'il est l'éditeur d'auteurs controversés comme Norman G. Finkelstein (L'Industrie de l'Holocauste) ou d'Houria Bouteldja (Les Blancs, les Juifs et nous. Vers une politique de l'amour révolutionnaire)[8].
-Auteur
-En septembre 2012, il publie Une histoire de la Révolution française dans laquelle il entend appréhender « un mille-feuille dont chaque couche doit être la plus fine possible » (il ne considère donc pas la Révolution française d'un bloc et d'un tout) car « c'est dans le détail qu'on arrive à y comprendre quelque chose, et non dans les grandes synthèses[9]. » Selon l’historien Antoine de Baecque, le livre est ouvertement robespierriste[10].
-Il est également traducteur, notamment des œuvres d'Edward Said.
+          <t>Jeunesse et militantisme</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éric Hazan naît à Paris d'une mère d'origine juive roumaine née en Palestine et d'un père juif originaire d'Égypte, Fernand Hazan, éditeur, lui-même frère d'Émile Hazan, également éditeur.
+Très tôt engagé politiquement, il milite aux côtés du FLN durant la guerre d'Algérie.
+En 1975, devenu chirurgien cardiovasculaire, et membre fondateur de l’Association médicale franco-palestinienne, il se rend au Liban alors en pleine guerre, pour servir de médecin « à cette “armée” que l’on appelait à l’époque les “Palestino-progressistes” ». Il est membre du comité de parrainage du tribunal Russell sur la Palestine dont les travaux ont commencé le 4 mars 2009.
+En 2019 il co-signe dans Mediapart un appel au boycott de l'Eurovision à Tel Aviv.
 </t>
         </is>
       </c>
@@ -535,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ric_Hazan</t>
+          <t>Éric_Hazan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,23 +560,105 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Éditeur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant quatorze ans, il dirige les éditions Hazan, prenant ainsi la succession de son père Fernand Hazan qui avait créé cette maison consacrée aux livres d'art. Il quitte la direction après le rachat par le groupe Hachette quatre ans après la mort du fondateur.
+En 1998, il fonde les éditions La Fabrique, une maison d'édition où sont publiés des essais historiques ou philosophiques, qui se veulent « ancrés politiquement à gauche de la gauche, mais sans céder à aucun esprit de chapelle, sans être inféodés à aucun groupe ni parti » et se tourne vers l'écriture.
+À La Fabrique, « il n'édite que des amis » d'après Libération. C'est ainsi[non neutre] qu'il est l'éditeur d'auteurs controversés comme Norman G. Finkelstein (L'Industrie de l'Holocauste) ou d'Houria Bouteldja (Les Blancs, les Juifs et nous. Vers une politique de l'amour révolutionnaire).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Éric_Hazan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_Hazan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En septembre 2012, il publie Une histoire de la Révolution française dans laquelle il entend appréhender « un mille-feuille dont chaque couche doit être la plus fine possible » (il ne considère donc pas la Révolution française d'un bloc et d'un tout) car « c'est dans le détail qu'on arrive à y comprendre quelque chose, et non dans les grandes synthèses. » Selon l’historien Antoine de Baecque, le livre est ouvertement robespierriste.
+Il est également traducteur, notamment des œuvres d'Edward Said.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Éric_Hazan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_Hazan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ouvrages
-L'Invention de Paris, il n'y a pas de pas perdus, Paris, Seuil coll. « Fiction et Cie », 2002  (ISBN 2020540932) (réédition poche, Points, 2010 ; grand format avec illustrations, Seuil, 2012)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Invention de Paris, il n'y a pas de pas perdus, Paris, Seuil coll. « Fiction et Cie », 2002  (ISBN 2020540932) (réédition poche, Points, 2010 ; grand format avec illustrations, Seuil, 2012)
 Chronique de la guerre civile, Paris, La Fabrique, 2004  (ISBN 9782913372320)
 Faire mouvement, recueil d'entretiens avec Mathieu Potte-Bonneville, Paris, Les Prairies Ordinaires coll. « Contrepoints », 2005
-LQR : la propagande du quotidien, Paris, Liber-Raisons d'agir, 2006  (ISBN 2-912107-29-6)[11]
+LQR : la propagande du quotidien, Paris, Liber-Raisons d'agir, 2006  (ISBN 2-912107-29-6)
 Notes sur l’occupation : Naplouse, Kalkilyia, Hébron, Paris, La Fabrique, 2006  (ISBN 9782913372573)
 Changement de propriétaire, la guerre civile continue, Paris, Seuil, 2007  (ISBN 2020961652)
 L'Antisémitisme partout. Aujourd'hui en France, avec Alain Badiou, Paris, La Fabrique, 2011  (ISBN 9782358720182)
 Paris sous tension, Paris, La Fabrique, 2011  (ISBN 978-2-3587-2020-5)
 Vues de Paris 1750-1850, Paris, Bibliothèque de l'Image et Bibliothèque nationale de France, 2011
 Un État commun. Entre le Jourdain et la mer, avec Eyal Sivan, Paris, La Fabrique, 2012  (ISBN 978-2-35872-033-5)
-Une histoire de la Révolution française, Paris, La Fabrique, 2012  (ISBN 978-2-35872-038-0)[12]
+Une histoire de la Révolution française, Paris, La Fabrique, 2012  (ISBN 978-2-35872-038-0)
 Reflections on Anti-Semitism, avec Alain Badiou et Ivan Segré, Londres, VersoBooks, 2013
 Premières mesures révolutionnaires, avec Kamo, Paris, La Fabrique, 2013  (ISBN 978-2-35872-049-6)
 La Barricade : Histoire d'un objet révolutionnaire, Paris, Autrement coll. « Leçons de choses », 2013
@@ -576,21 +668,123 @@
 À travers les lignes. Textes politiques, Paris, La Fabrique, 2017  (ISBN 978-2-35872-098-4)
 Balzac, Paris, Paris, La Fabrique, 2018  (ISBN 978-2-35872-160-8)
 Police (coll.), Paris, La Fabrique, 2020  (ISBN 978-2-35872-202-5)
-Le Tumulte de Paris, Paris, La Fabrique, 2021  (ISBN 978-2-35872-211-7)[13]
-Direction d'ouvrages
-Moustapha Barghouti, Rester sur la montagne, Entretiens sur la Palestine avec Éric Hazan, Paris, La Fabrique, 2005
+Le Tumulte de Paris, Paris, La Fabrique, 2021  (ISBN 978-2-35872-211-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Éric_Hazan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_Hazan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Direction d'ouvrages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Moustapha Barghouti, Rester sur la montagne, Entretiens sur la Palestine avec Éric Hazan, Paris, La Fabrique, 2005
 Raymond Depardon, Le Désert, allers et retours. Propos recueillis par Éric Hazan, Paris, La Fabrique, 2014
 Paris Magnum (textes d'Éric Hazan), Paris, Flammarion, 2014 (édition anglaise aux mêmes éditions, publié aussi en novembre 2014 et avec une autre maquette)
-Charles Frémont, Paris au temps des fiacres. Photographies, 1885-1914 (textes d'Éric Hazan), Paris, Le Seuil, 2015
-Traductions
-(Toutes de l'anglais.)
+Charles Frémont, Paris au temps des fiacres. Photographies, 1885-1914 (textes d'Éric Hazan), Paris, Le Seuil, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Éric_Hazan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_Hazan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Toutes de l'anglais.)
 Tariq Ali, Bush à Babylone : la recolonisation de l'Irak, La Fabrique, 2004
 André Schiffrin, Le Contrôle de la parole. L'édition sans éditeur, suite, La Fabrique, 2005
 Tanya Reinhart, L'Héritage de Sharon : détruire la Palestine, suite, La Fabrique, 2006
 André Schiffrin, L'Argent et les Mots, La Fabrique, 2010
-Hongsheng Jiang, La Commune de Shanghai et la Commune de Paris, préface Alain Badiou, La Fabrique, 2014
-Préfaces et postfaces
-Comme une ombre portée, postface à Paradis infernaux. Les villes hallucinées du néo-capitalisme de Mike Davis et Daniel B. Monk, Paris, Les Prairies ordinaires coll. « Penser/Croiser », 2008
+Hongsheng Jiang, La Commune de Shanghai et la Commune de Paris, préface Alain Badiou, La Fabrique, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Éric_Hazan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ric_Hazan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Préfaces et postfaces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Comme une ombre portée, postface à Paradis infernaux. Les villes hallucinées du néo-capitalisme de Mike Davis et Daniel B. Monk, Paris, Les Prairies ordinaires coll. « Penser/Croiser », 2008
 Les Pauvres et leurs quartiers, postface à Les Causes de la mortalité dans les divers quartiers de Paris de Louis-René Villermé, Paris, La Fabrique, 2008
 Assez de larmes !, introduction à Le livre : que faire ? (collectif), Paris, La Fabrique, 2008
 Police, Révolution, Police, préface à Ce que tout révolutionnaire doit savoir de Victor Serge, Paris, Zones Éditions, 2009
